--- a/URL Contohku.xlsx
+++ b/URL Contohku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>No</t>
   </si>
@@ -120,6 +120,30 @@
   </si>
   <si>
     <t>Contoh Surat Lamaran Kerja Di Bank Dalam Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>Contoh Surat Resmi Pemberitahuan Study Tour</t>
+  </si>
+  <si>
+    <t>http://www.contohku.net/contoh-surat-resmi-pemberitahuan-study-tour</t>
+  </si>
+  <si>
+    <t>Contoh Surat Lamaran Kerja Tanpa Nama Perusahaan</t>
+  </si>
+  <si>
+    <t>http://www.contohku.net/contoh-surat-lamaran-kerja-tanpa-nama-perusahaan</t>
+  </si>
+  <si>
+    <t>Contoh Surat Untuk Sahabat Pena Dalam Bahasa Inggris</t>
+  </si>
+  <si>
+    <t>http://www.contohku.net/contoh-surat-untuk-sahabat-pena-dalam-bahasa-inggris</t>
+  </si>
+  <si>
+    <t>Contoh Surat Dinas Yang Berkenaan Dengan Kegiatan Sekolah</t>
+  </si>
+  <si>
+    <t>http://www.contohku.net/contoh-surat-dinas-yang-berkenaan-dengan-kegiatan-sekolah</t>
   </si>
 </sst>
 </file>
@@ -458,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,11 +652,58 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -651,6 +722,10 @@
     <hyperlink ref="D13" r:id="rId12"/>
     <hyperlink ref="D14" r:id="rId13"/>
     <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/URL Contohku.xlsx
+++ b/URL Contohku.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>No</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>http://www.contohku.net/contoh-surat-dinas-yang-berkenaan-dengan-kegiatan-sekolah</t>
+  </si>
+  <si>
+    <t>Contoh Surat Lamaran Kerja Ke Sekolah Sebagai Tata Usaha</t>
+  </si>
+  <si>
+    <t>Contoh Curriculum Vitae Dalam Bahasa Inggris Dan Artinya DOC</t>
+  </si>
+  <si>
+    <t>Contoh Surat Lamaran Kerja Yang Baik Dan Benar</t>
+  </si>
+  <si>
+    <t>Contoh Surat Lamaran Kerja Di Hotel Bagian Waiter</t>
+  </si>
+  <si>
+    <t>Contoh Surat Keterangan Belum Menikah Dari R</t>
   </si>
 </sst>
 </file>
@@ -485,11 +500,12 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="68.5" customWidth="1"/>
     <col min="4" max="4" width="76.25" customWidth="1"/>
   </cols>
@@ -567,6 +583,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
@@ -578,6 +597,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -589,6 +611,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -600,6 +625,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -611,6 +639,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -622,6 +653,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" t="s">
         <v>21</v>
       </c>
@@ -633,6 +667,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
@@ -644,6 +681,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
@@ -655,6 +695,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
@@ -666,6 +709,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
@@ -677,6 +723,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -688,6 +737,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -698,6 +750,9 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>

--- a/URL Contohku.xlsx
+++ b/URL Contohku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/URL Contohku.xlsx
+++ b/URL Contohku.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\INTERNET MARKETING\KEYWORDS\key-contoh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INTERNET MARKETING\Keyword\contoh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
